--- a/Evaluation_Results/Final_TestFiles_3rdSeptember_FewShotTest_Broad/ner_evaluation_results_Qwen2.5-32B-Instruct_2_shot.xlsx
+++ b/Evaluation_Results/Final_TestFiles_3rdSeptember_FewShotTest_Broad/ner_evaluation_results_Qwen2.5-32B-Instruct_2_shot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Power Consumption</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -635,6 +640,90 @@
       <c r="X2" t="n">
         <v>2116</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Qwen2.5-32B-Instruct</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4953703703703703</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3602693602693603</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4171539961013645</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5385039129371485</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.366767344502872</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4254899499088304</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.546178414124122</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3602693602693603</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4254327582600828</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4256756756756757</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4921875000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>126</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>170</v>
+      </c>
+      <c r="R3" t="n">
+        <v>297</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9525464349910125</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_3rdSeptember_FewShotTest_Broad/ner_evaluation_results_Qwen2.5-32B-Instruct_2_shot.txt</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>/home/s27mhusa_hpc/Master-Thesis/Evaluation_Results/Final_TestFiles_3rdSeptember_FewShotTest_Broad/Stats/ner_evaluation_stats_Qwen2.5-32B-Instruct_2_shot.txt</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>4 MLGPU</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.065 kWh</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
